--- a/biology/Botanique/Gnetum_urens/Gnetum_urens.xlsx
+++ b/biology/Botanique/Gnetum_urens/Gnetum_urens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gnetum urens est une espèce de liane néotropicale, appartenant à la famille des Gnetaceae.
-On le connaît sous le nom générique de Bell bird's heart (créole du Guyana)[3], Towauri (Venezuela), Itua, Cipo-Itua (Portugais)[4].
+On le connaît sous le nom générique de Bell bird's heart (créole du Guyana), Towauri (Venezuela), Itua, Cipo-Itua (Portugais).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Gnetum urens est une liane élancée à brindilles minces et lisses et à écorce lisse, gris clair à brun clair. Un exsudat de couleur crème perle des tiges coupées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gnetum urens est une liane élancée à brindilles minces et lisses et à écorce lisse, gris clair à brun clair. Un exsudat de couleur crème perle des tiges coupées.
 Les feuilles de forme elliptique mesurent jusqu'à 12(–15) cm par 6(–8) cm et sont de couleur vert jaunâtre, minces. Elles fléchissent abruptement (chez les plantes vivantes), sont cartacées à rarement subcoriacées, avec un apex aigu à acuminé, une base inégalement obtuse, et elles sont soutenues par un pétiole long de 8 mm.
 On compte quatre à six nervures secondaires, de part et d'autre de la nervure médiane, droites et se rencontrant loin de la marge.
 Le limbe est finement strié par des fibres sous-épidermiques denses, de sorte que la face supérieure apparaît brillante et soyeuse, tandis que la face abaxiale semble terne et sculptée (des nervures tertiaires sont sombres, et les nervures primaires et secondaires sont proéminentes et très étroites sur la face abaxiale : moins d'1 mm de large).
@@ -522,9 +536,44 @@
 Les axes mâles microsporangés, sont peu ramifiés, plutôt lâches avec des entre-nœuds principaux longs, et des entre-nœuds courts (1 à 2 mm) pour les unités fertiles en forme de coupe avec marge incurvée ; les « fleurs mâles » à microspores dépassant à peine le périanthe.
 Les axes femelles producteurs d'ovules, sont rarement ramifiés.
 On distingue une partie avec des « fleurs femelles » stériles minuscules, cylindriques, espacées entre elles jusqu'à 10 mm, et une partie avec des « fleurs femelles » fertiles, courtement acuminé, espacées entre elles de 3 mm, dépassant du périanthe de ¹⁄₂ mm.
-A maturité, ses graines sont jaunes à rouges, brillantes, de forme oblongoïde à légèrement obovoïde, souvent avec un anneau basal en forme de bouton, fortement mucronée à l'apex, mesurant 35-40 mm de long par 18-20 mm de diamètre, avec la couche externe mince et fibreuse, et la couche interne cartacée[5],[6],[4],[3].
-Protologue
-En 1775, le botaniste Aublet propose le protologue suivant pour Thoa urens (basionyme de Gnetum urens)[1] : 
+A maturité, ses graines sont jaunes à rouges, brillantes, de forme oblongoïde à légèrement obovoïde, souvent avec un anneau basal en forme de bouton, fortement mucronée à l'apex, mesurant 35-40 mm de long par 18-20 mm de diamètre, avec la couche externe mince et fibreuse, et la couche interne cartacée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gnetum_urens</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gnetum_urens</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Protologue</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant pour Thoa urens (basionyme de Gnetum urens) : 
 « THOA urens. (Tabula 336.) 
 Frutex trunco tortuoso, decem-pedali ; ramos tortuosos, scandentes, emittente, suprà arbores, eciam proceras, sparsos. Folia opposita, ovata, acuta, glabra, integerrima, brevi petiolata. Flores axillares &amp; terminales. Suprà corticem trunci, reperitur gummi genus luteum, translucidum. 
 Floret, fructumque sert variis anni temporibus.
@@ -546,37 +595,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gnetum_urens</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gnetum_urens</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gnetum urens est présent du Venezuela (Bolivar et Amazonas) au nord du Brésil, en passant par le Guyana, le Suriname et la Guyane[5],[6].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -598,12 +616,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gnetum urens pousse dans les forêts inondées et les basses vallées fluviales, jusque près de la côte, les marais d'eaux noires, et les tepuis, autour de (0)500–1 700 m d'altitude[6],[5]. En Guyane, il est relativement commun dans le couvert forestier, et produit ses graines en mai-août[3].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gnetum urens est présent du Venezuela (Bolivar et Amazonas) au nord du Brésil, en passant par le Guyana, le Suriname et la Guyane,.
 </t>
         </is>
       </c>
@@ -629,13 +649,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gnetum urens pousse dans les forêts inondées et les basses vallées fluviales, jusque près de la côte, les marais d'eaux noires, et les tepuis, autour de (0)500–1 700 m d'altitude,. En Guyane, il est relativement commun dans le couvert forestier, et produit ses graines en mai-août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gnetum_urens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gnetum_urens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'amande de Gnetum urens est comestible cuite ou grillée[7].
-Les Palikur de Guyane, de même que diverses populations amérindiennes d'Amazonie, consomment les graines grillées de divers Gnetum[8]. Au Venezuela, on les consommes bouillies ou rôties[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'amande de Gnetum urens est comestible cuite ou grillée.
+Les Palikur de Guyane, de même que diverses populations amérindiennes d'Amazonie, consomment les graines grillées de divers Gnetum. Au Venezuela, on les consommes bouillies ou rôties.
 </t>
         </is>
       </c>
